--- a/biology/Botanique/Parc_Alexandria_de_l'Académie_nationale_des_sciences_d'Ukraine/Parc_Alexandria_de_l'Académie_nationale_des_sciences_d'Ukraine.xlsx
+++ b/biology/Botanique/Parc_Alexandria_de_l'Académie_nationale_des_sciences_d'Ukraine/Parc_Alexandria_de_l'Académie_nationale_des_sciences_d'Ukraine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_Alexandria_de_l%27Acad%C3%A9mie_nationale_des_sciences_d%27Ukraine</t>
+          <t>Parc_Alexandria_de_l'Académie_nationale_des_sciences_d'Ukraine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Alexandria (ukrainien: Державний дендрологічний парк «Олександрія» НАН України) est un jardin botanique public de type arboretum dépendant de l'Académie nationale des sciences d'Ukraine. Il est situé au nord-ouest de la commune de Bila Tserkva, dans l'oblast de Kiev, à 80 kilomètres au sud de la ville de Kiev. S'étendant sur plus de 290 hectares, il est le plus grand jardin botanique d'Ukraine. Il est nommé en hommage à Alexandra von Engelhardt, comtesse Branicka, qui en fut la propriétaire.
